--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,9 +19,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200002地號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200003地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉田尾段01690013地號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段00420000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00970026地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00970034.地號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00970035地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之234</t>
+  </si>
+  <si>
+    <t>徐耀昌</t>
+  </si>
+  <si>
+    <t>蔡麗卿</t>
+  </si>
+  <si>
+    <t>73年11月06日</t>
+  </si>
+  <si>
+    <t>82年05月28日</t>
+  </si>
+  <si>
+    <t>89年02月23日</t>
+  </si>
+  <si>
+    <t>91年04月17日</t>
+  </si>
+  <si>
+    <t>91年04月17曰</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-22</t>
+  </si>
+  <si>
+    <t>tmpd3a41</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -39,103 +153,37 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得像額</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 0920-0002 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 0920-0003 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉田尾段0169-0013 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段0042-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段0097-0026 地號 •</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段0097-0034 .地號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段0097-0035 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 234</t>
-  </si>
-  <si>
-    <t>徐耀昌</t>
-  </si>
-  <si>
-    <t>蔡麗卿</t>
-  </si>
-  <si>
-    <t>73年11月 06日</t>
-  </si>
-  <si>
-    <t>82年05月 28日</t>
-  </si>
-  <si>
-    <t>89年02月 23日</t>
-  </si>
-  <si>
-    <t>91年04月 17日</t>
-  </si>
-  <si>
-    <t>91年04月 17曰</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 01681-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 01682-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段 01683-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01336-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01373-000 建號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段00171 -000</t>
-  </si>
-  <si>
-    <t>83年09月 21曰</t>
-  </si>
-  <si>
-    <t>83年09月 21日</t>
-  </si>
-  <si>
-    <t>99 年 06 ^</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01681000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01683000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01336000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01373000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00171000</t>
+  </si>
+  <si>
+    <t>83年09月21曰</t>
+  </si>
+  <si>
+    <t>83年09月21日</t>
+  </si>
+  <si>
+    <t>99年06</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>第一次登</t>
@@ -150,10 +198,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>鈴木 JIMAY 1.3L JLXA43D</t>
-  </si>
-  <si>
-    <t>94年05月 20日</t>
+    <t>鈴木JIMAY1.3LJLXA43D</t>
+  </si>
+  <si>
+    <t>94年05月20日</t>
   </si>
   <si>
     <t>(新購）</t>
@@ -183,10 +231,10 @@
     <t>聯博全高T</t>
   </si>
   <si>
-    <t>富蘭克林坦公司 債</t>
-  </si>
-  <si>
-    <t>富蘭克林亞洲成 長</t>
+    <t>富蘭克林坦公司債</t>
+  </si>
+  <si>
+    <t>富蘭克林亞洲成長</t>
   </si>
   <si>
     <t>富蘭克林天資美</t>
@@ -204,7 +252,7 @@
     <t>財產孳類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>價</t>
@@ -587,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,187 +663,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>921</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>921</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1091</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>921</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3448</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>921</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2723</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>921</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>2564</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>921</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2674</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>921</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -813,25 +1029,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -839,25 +1055,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -865,25 +1081,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -891,25 +1107,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -917,25 +1133,25 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>74.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -943,25 +1159,25 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>69.77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -969,22 +1185,22 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>456.34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>8000000</v>
@@ -1005,22 +1221,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1028,22 +1244,22 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1328</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1061,25 +1277,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1087,13 +1303,13 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>20000</v>
@@ -1102,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2">
         <v>200000</v>
@@ -1113,13 +1329,13 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>1157.4</v>
@@ -1128,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2">
         <v>152500</v>
@@ -1139,13 +1355,13 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>764.526</v>
@@ -1154,7 +1370,7 @@
         <v>6.5399</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2">
         <v>152500</v>
@@ -1165,13 +1381,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>107.428</v>
@@ -1180,7 +1396,7 @@
         <v>29.7873</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2">
         <v>97600</v>
@@ -1191,13 +1407,13 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>327.807</v>
@@ -1206,7 +1422,7 @@
         <v>9.7618</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2">
         <v>97600</v>
@@ -1227,16 +1443,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1244,13 +1460,13 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
@@ -1271,13 +1487,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1285,13 +1501,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1299,13 +1515,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段09200003地號</t>
@@ -135,30 +138,15 @@
     <t>tmpd3a41</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段01681000建號</t>
   </si>
   <si>
+    <t>83年09月21曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
   </si>
   <si>
@@ -174,30 +162,15 @@
     <t>苗栗縣南庄鄉四灣段00171000</t>
   </si>
   <si>
-    <t>83年09月21曰</t>
-  </si>
-  <si>
     <t>83年09月21日</t>
   </si>
   <si>
     <t>99年06</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>第一次登</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>鈴木JIMAY1.3LJLXA43D</t>
   </si>
   <si>
@@ -207,27 +180,15 @@
     <t>(新購）</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>匯豐拉美</t>
   </si>
   <si>
+    <t>合作金庫</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>聯博全高T</t>
   </si>
   <si>
@@ -240,34 +201,10 @@
     <t>富蘭克林天資美</t>
   </si>
   <si>
-    <t>合作金庫</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>財產孳類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
     <t>金茶壺</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -635,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,157 +621,181 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>921</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>160</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>921</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3448</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1091</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>921</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0234</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>80.6832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3448</v>
+        <v>2723</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -843,175 +804,146 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>921</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2723</v>
+        <v>2564</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>921</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2">
         <v>921</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>2674</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2">
-        <v>921</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1020,254 +952,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>187</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2">
-        <v>187</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>74.6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>69.77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2">
-        <v>456.34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1328</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1277,74 +961,273 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="1">
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2">
-        <v>200000</v>
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>74.6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>69.77</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>456.34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>73</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1157.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <v>152500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>74</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
-        <v>1157.4</v>
+        <v>764.526</v>
       </c>
       <c r="F3" s="2">
-        <v>4</v>
+        <v>6.5399</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>152500</v>
@@ -1352,79 +1235,53 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
-        <v>764.526</v>
+        <v>107.428</v>
       </c>
       <c r="F4" s="2">
-        <v>6.5399</v>
+        <v>29.7873</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
-        <v>152500</v>
+        <v>97600</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
-        <v>107.428</v>
+        <v>327.807</v>
       </c>
       <c r="F5" s="2">
-        <v>29.7873</v>
+        <v>9.7618</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2">
-        <v>97600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2">
-        <v>327.807</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.7618</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="2">
         <v>97600</v>
       </c>
     </row>
@@ -1435,40 +1292,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1">
         <v>600000</v>
       </c>
     </row>
@@ -1479,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1487,41 +1327,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段09200002地號</t>
+  </si>
+  <si>
     <t>苗栗縣頭份鎮蟠桃段忠孝小段09200003地號</t>
   </si>
   <si>
@@ -141,31 +144,31 @@
     <t>苗栗縣頭份鎮蟠桃段忠孝小段01681000建號</t>
   </si>
   <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮蟠桃段忠孝小段01683000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01336000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣大湖鄉大湖段01373000建號</t>
+  </si>
+  <si>
+    <t>苗栗縣南庄鄉四灣段00171000</t>
+  </si>
+  <si>
     <t>83年09月21曰</t>
   </si>
   <si>
+    <t>83年09月21日</t>
+  </si>
+  <si>
+    <t>99年06</t>
+  </si>
+  <si>
     <t>第一次登記</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段01682000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮蟠桃段忠孝小段01683000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01336000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣大湖鄉大湖段01373000建號</t>
-  </si>
-  <si>
-    <t>苗栗縣南庄鄉四灣段00171000</t>
-  </si>
-  <si>
-    <t>83年09月21日</t>
-  </si>
-  <si>
-    <t>99年06</t>
   </si>
   <si>
     <t>第一次登</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +633,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -639,40 +642,40 @@
         <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>921</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -683,16 +686,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1091</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -704,51 +707,51 @@
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>921</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1091</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3448</v>
+        <v>1091</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -757,192 +760,245 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>921</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0234</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>80.6832</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2723</v>
+        <v>3448</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>921</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.0234</v>
       </c>
       <c r="Q5" s="2">
-        <v>2723</v>
+        <v>80.6832</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2564</v>
+        <v>2723</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2">
         <v>921</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>2564</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2674</v>
+        <v>2564</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2">
         <v>921</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2674</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>921</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>2674</v>
       </c>
     </row>
@@ -952,6 +1008,443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>181</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>921</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>921</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>187</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>921</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>74.6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>921</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>74.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>69.77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>921</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>29</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>69.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>456.34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8000000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>921</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>456.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1328</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -961,327 +1454,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1">
-        <v>181</v>
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="H1" s="1">
+        <v>200000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>187</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>187</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1157.4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
+        <v>152500</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>74.6</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="E4" s="2">
+        <v>764.526</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.5399</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="H4" s="2">
+        <v>152500</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2">
-        <v>69.77</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="E5" s="2">
+        <v>107.428</v>
+      </c>
+      <c r="F5" s="2">
+        <v>29.7873</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="H5" s="2">
+        <v>97600</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2">
-        <v>456.34</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="E6" s="2">
+        <v>327.807</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.7618</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2">
-        <v>8000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1328</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1157.4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>152500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2">
-        <v>764.526</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.5399</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2">
-        <v>152500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>75</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2">
-        <v>107.428</v>
-      </c>
-      <c r="F4" s="2">
-        <v>29.7873</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2">
-        <v>97600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2">
-        <v>327.807</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9.7618</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2">
         <v>97600</v>
       </c>
     </row>
@@ -1292,23 +1612,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
         <v>600000</v>
       </c>
     </row>
@@ -1319,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1327,27 +1664,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>第一次登</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>鈴木JIMAY1.3LJLXA43D</t>
@@ -1390,38 +1393,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1">
-        <v>1328</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1328</v>
@@ -1430,13 +1454,34 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>921</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1454,13 +1499,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>20000</v>
@@ -1469,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1">
         <v>200000</v>
@@ -1480,13 +1525,13 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>20000</v>
@@ -1495,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
         <v>200000</v>
@@ -1506,13 +1551,13 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>1157.4</v>
@@ -1521,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2">
         <v>152500</v>
@@ -1532,13 +1577,13 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2">
         <v>764.526</v>
@@ -1547,7 +1592,7 @@
         <v>6.5399</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2">
         <v>152500</v>
@@ -1558,13 +1603,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2">
         <v>107.428</v>
@@ -1573,7 +1618,7 @@
         <v>29.7873</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2">
         <v>97600</v>
@@ -1584,13 +1629,13 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>327.807</v>
@@ -1599,7 +1644,7 @@
         <v>9.7618</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2">
         <v>97600</v>
@@ -1620,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1637,7 +1682,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1664,10 +1709,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -1678,10 +1723,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1692,10 +1737,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -174,6 +174,9 @@
     <t>第一次登</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t>(新購）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>匯豐拉美</t>
@@ -1094,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1147,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1200,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1253,7 +1259,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1306,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1359,7 +1365,7 @@
         <v>8000000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1445,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>1328</v>
@@ -1454,16 +1460,16 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -1499,13 +1505,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>20000</v>
@@ -1514,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1">
         <v>200000</v>
@@ -1525,13 +1531,13 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>20000</v>
@@ -1540,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>200000</v>
@@ -1551,13 +1557,13 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2">
         <v>1157.4</v>
@@ -1566,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>152500</v>
@@ -1577,13 +1583,13 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2">
         <v>764.526</v>
@@ -1592,7 +1598,7 @@
         <v>6.5399</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
         <v>152500</v>
@@ -1603,13 +1609,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>107.428</v>
@@ -1618,7 +1624,7 @@
         <v>29.7873</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2">
         <v>97600</v>
@@ -1629,13 +1635,13 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2">
         <v>327.807</v>
@@ -1644,7 +1650,7 @@
         <v>9.7618</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>97600</v>
@@ -1665,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1682,7 +1688,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1709,10 +1715,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -1723,10 +1729,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1737,10 +1743,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -192,31 +192,49 @@
     <t>car</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>匯豐拉美</t>
   </si>
   <si>
+    <t>聯博全高T</t>
+  </si>
+  <si>
+    <t>富蘭克林坦公司債</t>
+  </si>
+  <si>
+    <t>富蘭克林亞洲成長</t>
+  </si>
+  <si>
+    <t>富蘭克林天資美</t>
+  </si>
+  <si>
     <t>合作金庫</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>聯博全高T</t>
-  </si>
-  <si>
-    <t>富蘭克林坦公司債</t>
-  </si>
-  <si>
-    <t>富蘭克林亞洲成長</t>
-  </si>
-  <si>
-    <t>富蘭克林天資美</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>金茶壺</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -1497,47 +1515,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>20000</v>
@@ -1546,24 +1585,45 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>921</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>1157.4</v>
@@ -1572,24 +1632,45 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
         <v>152500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>921</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
         <v>764.526</v>
@@ -1598,24 +1679,45 @@
         <v>6.5399</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
         <v>152500</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>921</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2">
         <v>107.428</v>
@@ -1624,24 +1726,45 @@
         <v>29.7873</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>97600</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>921</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2">
         <v>327.807</v>
@@ -1650,10 +1773,31 @@
         <v>9.7618</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>97600</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>921</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1663,32 +1807,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1698,6 +1863,27 @@
       </c>
       <c r="E2" s="2">
         <v>600000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>921</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1715,10 +1901,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -1729,10 +1915,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1743,10 +1929,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
+++ b/legislator/property/output/normal/徐耀昌_2011-12-22_財產申報表_tmpd3a41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -234,7 +234,10 @@
     <t>金茶壺</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -244,6 +247,9 @@
   </si>
   <si>
     <t>终生醫療險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1893,49 +1899,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>921</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>921</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
